--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityagoel/Downloads/VSC/my_projects/sewell-bmw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10ECCBAE-C899-E348-A32D-4B3BC40C25C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FAD399-576E-DB46-B4AD-6BFE5274874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="16220" xr2:uid="{6B00BAE6-4D36-D54D-AB4E-D2F2C828249C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">1. 3456789  </t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t xml:space="preserve">100. 3456790  </t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
   </si>
 </sst>
 </file>
@@ -707,512 +713,850 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C0B0A-8436-3145-96E0-BE6031E2CDB9}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>9371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>8439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>7561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>6392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>7945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>9403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>5826</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>7103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B57">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>8905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>6421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65">
+        <v>7402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="B76">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>9064</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="B78">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B79">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="B80">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="B82">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="B84">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="B89">
+        <v>6341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B90">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="B91">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="B92">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>4821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="B94">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="B96">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B97">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B100">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>99</v>
+      </c>
+      <c r="B101">
+        <v>6309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>9701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>4824</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>7283</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityagoel/Downloads/VSC/my_projects/sewell-bmw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FAD399-576E-DB46-B4AD-6BFE5274874C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461A53E-1136-984B-BFE6-A0DE3022D7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1740" windowWidth="27240" windowHeight="16220" xr2:uid="{6B00BAE6-4D36-D54D-AB4E-D2F2C828249C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,312 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">1. 3456789  </t>
+    <t>col1</t>
   </si>
   <si>
-    <t xml:space="preserve">2. 1234567  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. 9876543  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. 4567890  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. 2345678  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. 8765432  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. 3451234  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. 5678901  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. 8901234  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10. 6789012  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. 2348901  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12. 4560123  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13. 7890123  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14. 1238904  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15. 3456780  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. 5671234  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17. 8904567  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18. 6782345  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19. 1234568  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20. 9871234  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21. 4567891  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22. 2347801  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23. 8760123  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24. 3458901  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25. 5678902  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26. 8901235  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27. 6789013  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28. 2345679  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29. 4567892  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30. 7898901  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31. 1234569  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32. 3456781  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">33. 5678903  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34. 8901236  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35. 6789014  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36. 2345670  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37. 4567893  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38. 8765431  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">39. 3456782  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40. 5678904  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41. 8901237  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42. 6789015  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43. 2345671  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">44. 4567894  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45. 7890124  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">46. 1234570  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">47. 3456783  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">48. 5678905  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49. 8901238  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50. 6789016  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">51. 2345672  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52. 4567895  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53. 8765430  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54. 3456784  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55. 5678906  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56. 8901239  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57. 6789017  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">58. 2345673  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59. 4567896  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60. 7890125  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">61. 1234571  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62. 3456785  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63. 5678907  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">64. 8901240  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">65. 6789018  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">66. 2345674  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">67. 4567897  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">68. 8765429  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">69. 3456786  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70. 5678908  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">71. 8901241  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">72. 6789019  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73. 2345675  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">74. 4567898  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75. 7890126  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76. 1234572  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77. 3456787  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78. 5678909  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79. 8901242  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80. 6789020  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81. 2345676  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82. 4567899  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83. 8765428  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84. 3456788  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85. 5678910  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">86. 8901243  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">87. 6789021  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">88. 2345677  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">89. 4567800  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90. 7890127  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">91. 1234573  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92. 3456789  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">93. 5678911  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">94. 8901244  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95. 6789022  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">96. 2345678  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">97. 4567801  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">98. 7890128  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">99. 1234574  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100. 3456790  </t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
+    <t>col2</t>
   </si>
 </sst>
 </file>
@@ -713,850 +413,2952 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C0B0A-8436-3145-96E0-BE6031E2CDB9}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>482</v>
       </c>
       <c r="B2">
-        <v>9371</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>317</v>
       </c>
       <c r="B3">
-        <v>4826</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4">
+        <v>256</v>
       </c>
       <c r="B4">
-        <v>1054</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>6723</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>874</v>
       </c>
       <c r="B6">
-        <v>8439</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7">
+        <v>632</v>
       </c>
       <c r="B7">
-        <v>2145</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8">
+        <v>415</v>
       </c>
       <c r="B8">
-        <v>3987</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="A9">
+        <v>798</v>
       </c>
       <c r="B9">
-        <v>7561</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>241</v>
       </c>
       <c r="B10">
-        <v>2894</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11">
+        <v>563</v>
       </c>
       <c r="B11">
-        <v>6310</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
+      <c r="A12">
+        <v>907</v>
       </c>
       <c r="B12">
-        <v>4502</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13">
+        <v>324</v>
       </c>
       <c r="B13">
-        <v>1789</v>
+        <v>874</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14">
+        <v>178</v>
       </c>
       <c r="B14">
-        <v>9324</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="A15">
+        <v>640</v>
       </c>
       <c r="B15">
-        <v>5078</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16">
+        <v>582</v>
       </c>
       <c r="B16">
-        <v>1643</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
+      <c r="A17">
+        <v>391</v>
       </c>
       <c r="B17">
-        <v>8250</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18">
+        <v>205</v>
       </c>
       <c r="B18">
-        <v>3901</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19">
+        <v>748</v>
       </c>
       <c r="B19">
-        <v>2765</v>
+        <v>901</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20">
+        <v>916</v>
       </c>
       <c r="B20">
-        <v>8147</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
+      <c r="A21">
+        <v>374</v>
       </c>
       <c r="B21">
-        <v>6392</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
+      <c r="A22">
+        <v>829</v>
       </c>
       <c r="B22">
-        <v>4018</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23">
+        <v>103</v>
       </c>
       <c r="B23">
-        <v>7525</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="A24">
+        <v>657</v>
       </c>
       <c r="B24">
-        <v>1984</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
+      <c r="A25">
+        <v>490</v>
       </c>
       <c r="B25">
-        <v>5830</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
+      <c r="A26">
+        <v>275</v>
       </c>
       <c r="B26">
-        <v>2456</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
+      <c r="A27">
+        <v>836</v>
       </c>
       <c r="B27">
-        <v>9071</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="A28">
+        <v>514</v>
       </c>
       <c r="B28">
-        <v>3184</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
+      <c r="A29">
+        <v>689</v>
       </c>
       <c r="B29">
-        <v>6729</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
+      <c r="A30">
+        <v>342</v>
       </c>
       <c r="B30">
-        <v>4890</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
+      <c r="A31">
+        <v>108</v>
       </c>
       <c r="B31">
-        <v>5234</v>
+        <v>845</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
+      <c r="A32">
+        <v>759</v>
       </c>
       <c r="B32">
-        <v>1507</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
+      <c r="A33">
+        <v>620</v>
       </c>
       <c r="B33">
-        <v>8746</v>
+        <v>614</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
+      <c r="A34">
+        <v>473</v>
       </c>
       <c r="B34">
-        <v>3621</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
+      <c r="A35">
+        <v>891</v>
       </c>
       <c r="B35">
-        <v>7945</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
+      <c r="A36">
+        <v>234</v>
       </c>
       <c r="B36">
-        <v>2678</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
+      <c r="A37">
+        <v>507</v>
       </c>
       <c r="B37">
-        <v>9403</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
+      <c r="A38">
+        <v>186</v>
       </c>
       <c r="B38">
-        <v>5826</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
+      <c r="A39">
+        <v>934</v>
       </c>
       <c r="B39">
-        <v>7314</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
+      <c r="A40">
+        <v>412</v>
       </c>
       <c r="B40">
-        <v>1089</v>
+        <v>918</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>39</v>
+      <c r="A41">
+        <v>258</v>
       </c>
       <c r="B41">
-        <v>6542</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>40</v>
+      <c r="A42">
+        <v>671</v>
       </c>
       <c r="B42">
-        <v>3975</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>41</v>
+      <c r="A43">
+        <v>849</v>
       </c>
       <c r="B43">
-        <v>2148</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>42</v>
+      <c r="A44">
+        <v>375</v>
       </c>
       <c r="B44">
-        <v>8203</v>
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>43</v>
+      <c r="A45">
+        <v>902</v>
       </c>
       <c r="B45">
-        <v>4761</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>44</v>
+      <c r="A46">
+        <v>146</v>
       </c>
       <c r="B46">
-        <v>3029</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>45</v>
+      <c r="A47">
+        <v>783</v>
       </c>
       <c r="B47">
-        <v>5897</v>
+        <v>892</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
+      <c r="A48">
+        <v>509</v>
       </c>
       <c r="B48">
-        <v>7380</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>47</v>
+      <c r="A49">
+        <v>267</v>
       </c>
       <c r="B49">
-        <v>1462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>48</v>
+      <c r="A50">
+        <v>834</v>
       </c>
       <c r="B50">
-        <v>9058</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
+      <c r="A51">
+        <v>120</v>
       </c>
       <c r="B51">
-        <v>3741</v>
+        <v>973</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
+      <c r="A52">
+        <v>694</v>
       </c>
       <c r="B52">
-        <v>2197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>51</v>
+      <c r="A53">
+        <v>378</v>
       </c>
       <c r="B53">
-        <v>8630</v>
+        <v>816</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>52</v>
+      <c r="A54">
+        <v>205</v>
       </c>
       <c r="B54">
-        <v>5489</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
+      <c r="A55">
+        <v>761</v>
       </c>
       <c r="B55">
-        <v>7103</v>
+        <v>942</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>54</v>
+      <c r="A56">
+        <v>438</v>
       </c>
       <c r="B56">
-        <v>8524</v>
+        <v>683</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>55</v>
+      <c r="A57">
+        <v>295</v>
       </c>
       <c r="B57">
-        <v>4931</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>56</v>
+      <c r="A58">
+        <v>817</v>
       </c>
       <c r="B58">
-        <v>6750</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>57</v>
+      <c r="A59">
+        <v>640</v>
       </c>
       <c r="B59">
-        <v>3078</v>
+        <v>860</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
+      <c r="A60">
+        <v>153</v>
       </c>
       <c r="B60">
-        <v>1246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
+      <c r="A61">
+        <v>974</v>
       </c>
       <c r="B61">
-        <v>8905</v>
+        <v>715</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>60</v>
+      <c r="A62">
+        <v>210</v>
       </c>
       <c r="B62">
-        <v>6421</v>
+        <v>903</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>61</v>
+      <c r="A63">
+        <v>386</v>
       </c>
       <c r="B63">
-        <v>3814</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>62</v>
+      <c r="A64">
+        <v>572</v>
       </c>
       <c r="B64">
-        <v>5698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>63</v>
+      <c r="A65">
+        <v>489</v>
       </c>
       <c r="B65">
-        <v>7402</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>64</v>
+      <c r="A66">
+        <v>635</v>
       </c>
       <c r="B66">
-        <v>1583</v>
+        <v>794</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>65</v>
+      <c r="A67">
+        <v>204</v>
       </c>
       <c r="B67">
-        <v>9026</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>66</v>
+      <c r="A68">
+        <v>781</v>
       </c>
       <c r="B68">
-        <v>4785</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>67</v>
+      <c r="A69">
+        <v>920</v>
       </c>
       <c r="B69">
-        <v>2396</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>68</v>
+      <c r="A70">
+        <v>318</v>
       </c>
       <c r="B70">
-        <v>6140</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>69</v>
+      <c r="A71">
+        <v>467</v>
       </c>
       <c r="B71">
-        <v>7853</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>70</v>
+      <c r="A72">
+        <v>592</v>
       </c>
       <c r="B72">
-        <v>3509</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>71</v>
+      <c r="A73">
+        <v>746</v>
       </c>
       <c r="B73">
-        <v>8237</v>
+        <v>943</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>72</v>
+      <c r="A74">
+        <v>135</v>
       </c>
       <c r="B74">
-        <v>4912</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>73</v>
+      <c r="A75">
+        <v>804</v>
       </c>
       <c r="B75">
-        <v>6704</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>74</v>
+      <c r="A76">
+        <v>279</v>
       </c>
       <c r="B76">
-        <v>1589</v>
+        <v>792</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>75</v>
+      <c r="A77">
+        <v>653</v>
       </c>
       <c r="B77">
-        <v>9064</v>
+        <v>531</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>76</v>
+      <c r="A78">
+        <v>918</v>
       </c>
       <c r="B78">
-        <v>3725</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>77</v>
+      <c r="A79">
+        <v>427</v>
       </c>
       <c r="B79">
-        <v>8421</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>78</v>
+      <c r="A80">
+        <v>350</v>
       </c>
       <c r="B80">
-        <v>5643</v>
+        <v>890</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>79</v>
+      <c r="A81">
+        <v>841</v>
       </c>
       <c r="B81">
-        <v>2190</v>
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>80</v>
+      <c r="A82">
+        <v>604</v>
       </c>
       <c r="B82">
-        <v>7385</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>81</v>
+      <c r="A83">
+        <v>172</v>
       </c>
       <c r="B83">
-        <v>4810</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>82</v>
+      <c r="A84">
+        <v>905</v>
       </c>
       <c r="B84">
-        <v>6003</v>
+        <v>802</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>83</v>
+      <c r="A85">
+        <v>238</v>
       </c>
       <c r="B85">
-        <v>3958</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>84</v>
+      <c r="A86">
+        <v>547</v>
       </c>
       <c r="B86">
-        <v>8274</v>
+        <v>664</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>85</v>
+      <c r="A87">
+        <v>816</v>
       </c>
       <c r="B87">
-        <v>1502</v>
+        <v>981</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>86</v>
+      <c r="A88">
+        <v>394</v>
       </c>
       <c r="B88">
-        <v>7489</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>87</v>
+      <c r="A89">
+        <v>269</v>
       </c>
       <c r="B89">
-        <v>6341</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>88</v>
+      <c r="A90">
+        <v>731</v>
       </c>
       <c r="B90">
-        <v>2198</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>89</v>
+      <c r="A91">
+        <v>580</v>
       </c>
       <c r="B91">
-        <v>7654</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>90</v>
+      <c r="A92">
+        <v>962</v>
       </c>
       <c r="B92">
-        <v>9037</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>91</v>
+      <c r="A93">
+        <v>415</v>
       </c>
       <c r="B93">
-        <v>4821</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>92</v>
+      <c r="A94">
+        <v>823</v>
       </c>
       <c r="B94">
-        <v>1570</v>
+        <v>706</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>93</v>
+      <c r="A95">
+        <v>700</v>
       </c>
       <c r="B95">
-        <v>6708</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>94</v>
+      <c r="A96">
+        <v>154</v>
       </c>
       <c r="B96">
-        <v>3149</v>
+        <v>943</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>95</v>
+      <c r="A97">
+        <v>382</v>
       </c>
       <c r="B97">
-        <v>5862</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>96</v>
+      <c r="A98">
+        <v>678</v>
       </c>
       <c r="B98">
-        <v>4907</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>97</v>
+      <c r="A99">
+        <v>294</v>
       </c>
       <c r="B99">
-        <v>8432</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>98</v>
+      <c r="A100">
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>2715</v>
+        <v>897</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>99</v>
+      <c r="A101">
+        <v>856</v>
       </c>
       <c r="B101">
-        <v>6309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>491</v>
+      </c>
       <c r="B102">
-        <v>9701</v>
+        <v>561</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>623</v>
+      </c>
       <c r="B103">
-        <v>4824</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>750</v>
+      </c>
       <c r="B104">
-        <v>1594</v>
+        <v>804</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>348</v>
+      </c>
       <c r="B105">
-        <v>8741</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>907</v>
+      </c>
       <c r="B106">
-        <v>3056</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>215</v>
+      </c>
       <c r="B107">
-        <v>7283</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>475</v>
+      </c>
+      <c r="B108">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>869</v>
+      </c>
+      <c r="B109">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>302</v>
+      </c>
+      <c r="B110">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>764</v>
+      </c>
+      <c r="B111">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>578</v>
+      </c>
+      <c r="B112">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>135</v>
+      </c>
+      <c r="B113">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>920</v>
+      </c>
+      <c r="B114">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B310">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B331">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B333">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B334">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B335">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B336">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B337">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B338">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B340">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B341">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B342">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B343">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B344">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B345">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B346">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B347">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B348">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B349">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B350">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B351">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B352">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B357">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B359">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B361">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B363">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B365">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B367">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B369">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B370">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B371">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B372">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B373">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B374">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B375">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B376">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B377">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B378">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B379">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B380">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B381">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B382">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B383">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B384">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B385">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B386">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B387">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B388">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B389">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B390">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B391">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B392">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B393">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B394">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B395">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B396">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B397">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B398">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B399">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B400">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B401">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B402">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B403">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B404">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B405">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B406">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B407">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B408">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B409">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B410">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B411">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B412">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B413">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B414">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B415">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B416">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B417">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B418">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B419">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B420">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B421">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B422">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B423">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B424">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B425">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B426">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B427">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B428">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B429">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B430">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B431">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B432">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B433">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B434">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B435">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B436">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B437">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B438">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B439">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B440">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B441">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B442">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B443">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B444">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B445">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B446">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B447">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B448">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B449">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B450">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B451">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B452">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B453">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B454">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B455">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B456">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B457">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B458">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B459">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B460">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B461">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B462">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B463">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B464">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B465">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B466">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B467">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B468">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B469">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B470">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B471">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B472">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B473">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B474">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B475">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B476">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B477">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B478">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B479">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B480">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B481">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B482">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B483">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B484">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B485">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B486">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B487">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B488">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B489">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B490">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B491">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B492">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B493">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B494">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B495">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B496">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B497">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B498">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B499">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B500">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B501">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B502">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B503">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B504">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B505">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B506">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B507">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B508">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B509">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B510">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B511">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B512">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B513">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B514">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B515">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B516">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B517">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B518">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
